--- a/Справочник по кирпичам.xlsx
+++ b/Справочник по кирпичам.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolk/Projects/kazan-bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03966A7-E945-4A46-9A20-13FC820D44B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="440" windowWidth="24380" windowHeight="15480"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Казань - Краткий справочник по " sheetId="1" r:id="rId1"/>
     <sheet name="Остальная губерния - Краткий сп" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="207">
   <si>
     <t>Краткий справочник по кирпичным заводам и сараям Казанского Уезда. Составитель Степанищев Евгений</t>
   </si>
@@ -788,11 +789,17 @@
   <si>
     <t>Чистопольский у., Больше-Толкишевская в., с. Сарсассы</t>
   </si>
+  <si>
+    <t>?А</t>
+  </si>
+  <si>
+    <t>Агапов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1101,11 +1108,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1224,6 +1231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2332,17 +2342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BB34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2356,89 +2366,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
     </row>
     <row r="2" spans="1:256" s="24" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
@@ -16410,7 +16420,7 @@
       <c r="IV47" s="23"/>
     </row>
     <row r="48" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -16690,7 +16700,7 @@
       <c r="IV48" s="23"/>
     </row>
     <row r="49" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -16962,7 +16972,7 @@
       <c r="IV49" s="23"/>
     </row>
     <row r="50" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -23331,9 +23341,15 @@
       <c r="IV70" s="23"/>
     </row>
     <row r="71" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D71" s="27"/>
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
@@ -23371,8 +23387,12 @@
       <c r="AL71" s="28"/>
       <c r="AM71" s="28"/>
       <c r="AN71" s="28"/>
-      <c r="AO71" s="28"/>
-      <c r="AP71" s="28"/>
+      <c r="AO71" s="28">
+        <v>1877</v>
+      </c>
+      <c r="AP71" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
       <c r="AS71" s="28"/>
@@ -23601,29 +23621,29 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A9" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A15" r:id="rId5"/>
-    <hyperlink ref="A16" r:id="rId6"/>
-    <hyperlink ref="A24" r:id="rId7"/>
-    <hyperlink ref="A25" r:id="rId8"/>
-    <hyperlink ref="A26" r:id="rId9"/>
-    <hyperlink ref="A27" r:id="rId10"/>
-    <hyperlink ref="A28" r:id="rId11"/>
-    <hyperlink ref="A35" r:id="rId12"/>
-    <hyperlink ref="A36" r:id="rId13"/>
-    <hyperlink ref="A44" r:id="rId14"/>
-    <hyperlink ref="A45" r:id="rId15"/>
-    <hyperlink ref="A51" r:id="rId16"/>
-    <hyperlink ref="A55" r:id="rId17"/>
-    <hyperlink ref="A56" r:id="rId18"/>
-    <hyperlink ref="A57" r:id="rId19"/>
-    <hyperlink ref="A61" r:id="rId20"/>
-    <hyperlink ref="A48" r:id="rId21"/>
-    <hyperlink ref="A49" r:id="rId22"/>
-    <hyperlink ref="A50" r:id="rId23"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A44" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A45" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A51" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A61" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A50" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
@@ -23634,8 +23654,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV71"/>
@@ -23658,90 +23678,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41"/>
     </row>
     <row r="2" spans="1:256" s="24" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
@@ -35728,9 +35748,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
-    <hyperlink ref="A12" r:id="rId2"/>
-    <hyperlink ref="A25" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A25" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/Справочник по кирпичам.xlsx
+++ b/Справочник по кирпичам.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolk/Projects/kazan-bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03966A7-E945-4A46-9A20-13FC820D44B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FD295-5FA1-3B48-953B-2040D6811ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Казань - Краткий справочник по " sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
       </rPr>
       <t>ВП</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Павлов Василий Ксенофонтович</t>
   </si>
   <si>
     <r>
@@ -673,9 +670,6 @@
     <t>Казанский у., Клыково</t>
   </si>
   <si>
-    <t>ЛЧ</t>
-  </si>
-  <si>
     <t>Челышев Василий Львович</t>
   </si>
   <si>
@@ -794,6 +788,12 @@
   </si>
   <si>
     <t>Агапов</t>
+  </si>
+  <si>
+    <t>Павлов Василий Ксенофонтович</t>
+  </si>
+  <si>
+    <t>ВЧ</t>
   </si>
 </sst>
 </file>
@@ -2348,11 +2348,11 @@
   </sheetPr>
   <dimension ref="A1:IV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB50" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4872,11 +4872,15 @@
         <f t="shared" si="5"/>
         <v>1887</v>
       </c>
-      <c r="AZ10" s="15" t="s">
+      <c r="AZ10" s="14">
+        <v>1888</v>
+      </c>
+      <c r="BA10" s="13">
+        <v>1889</v>
+      </c>
+      <c r="BB10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
       <c r="BD10" s="13"/>
       <c r="BE10" s="13"/>
@@ -6361,7 +6365,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>8</v>
@@ -6645,13 +6649,13 @@
     </row>
     <row r="16" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -6953,10 +6957,10 @@
     </row>
     <row r="17" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
@@ -7222,10 +7226,10 @@
     </row>
     <row r="18" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
@@ -7491,10 +7495,10 @@
     </row>
     <row r="19" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>20</v>
@@ -7778,10 +7782,10 @@
     </row>
     <row r="20" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>8</v>
@@ -8049,10 +8053,10 @@
     </row>
     <row r="21" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>20</v>
@@ -8318,10 +8322,10 @@
     </row>
     <row r="22" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
@@ -8618,10 +8622,10 @@
     </row>
     <row r="23" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="26"/>
@@ -8885,13 +8889,13 @@
     </row>
     <row r="24" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>5</v>
@@ -9156,10 +9160,10 @@
     </row>
     <row r="25" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
@@ -9494,10 +9498,10 @@
     </row>
     <row r="26" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="13"/>
@@ -9763,13 +9767,13 @@
     </row>
     <row r="27" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -10032,10 +10036,10 @@
     </row>
     <row r="28" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
@@ -10301,13 +10305,13 @@
     </row>
     <row r="29" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="C29" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -10648,13 +10652,13 @@
     </row>
     <row r="30" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -11085,10 +11089,10 @@
     </row>
     <row r="31" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>20</v>
@@ -11426,10 +11430,10 @@
     </row>
     <row r="32" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="13"/>
@@ -11698,10 +11702,10 @@
     </row>
     <row r="33" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -11982,10 +11986,10 @@
     </row>
     <row r="34" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="13"/>
@@ -12263,13 +12267,13 @@
     </row>
     <row r="35" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -12555,13 +12559,13 @@
     </row>
     <row r="36" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -12866,10 +12870,10 @@
     </row>
     <row r="37" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
@@ -13135,13 +13139,13 @@
     </row>
     <row r="38" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -13293,11 +13297,15 @@
         <f t="shared" si="21"/>
         <v>1887</v>
       </c>
-      <c r="AZ38" s="15" t="s">
+      <c r="AZ38" s="14">
+        <v>1888</v>
+      </c>
+      <c r="BA38" s="14">
+        <v>1889</v>
+      </c>
+      <c r="BB38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="14"/>
       <c r="BC38" s="14"/>
       <c r="BD38" s="14"/>
       <c r="BE38" s="14"/>
@@ -13503,10 +13511,10 @@
     </row>
     <row r="39" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
@@ -13778,10 +13786,10 @@
     </row>
     <row r="40" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>11</v>
@@ -13888,11 +13896,15 @@
         <f t="shared" si="22"/>
         <v>1887</v>
       </c>
-      <c r="AZ40" s="15" t="s">
+      <c r="AZ40" s="14">
+        <v>1888</v>
+      </c>
+      <c r="BA40" s="14">
+        <v>1889</v>
+      </c>
+      <c r="BB40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="14"/>
       <c r="BC40" s="14"/>
       <c r="BD40" s="14"/>
       <c r="BE40" s="14"/>
@@ -14098,10 +14110,10 @@
     </row>
     <row r="41" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
@@ -14407,10 +14419,10 @@
     </row>
     <row r="42" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>8</v>
@@ -14687,10 +14699,10 @@
     </row>
     <row r="43" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>8</v>
@@ -14958,13 +14970,13 @@
     </row>
     <row r="44" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="C44" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>5</v>
@@ -15229,13 +15241,13 @@
     </row>
     <row r="45" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>88</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -15615,10 +15627,10 @@
     </row>
     <row r="46" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>20</v>
@@ -16043,10 +16055,10 @@
     </row>
     <row r="47" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
@@ -16421,13 +16433,13 @@
     </row>
     <row r="48" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="C48" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -16701,10 +16713,10 @@
     </row>
     <row r="49" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
@@ -16973,10 +16985,10 @@
     </row>
     <row r="50" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>11</v>
@@ -17242,13 +17254,13 @@
     </row>
     <row r="51" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="C51" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -17570,10 +17582,10 @@
     </row>
     <row r="52" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>20</v>
@@ -17872,10 +17884,10 @@
     </row>
     <row r="53" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>11</v>
@@ -18237,13 +18249,13 @@
     </row>
     <row r="54" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -18533,13 +18545,13 @@
     </row>
     <row r="55" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -18925,13 +18937,13 @@
     </row>
     <row r="56" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="C56" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>5</v>
@@ -19196,10 +19208,10 @@
     </row>
     <row r="57" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>8</v>
@@ -19556,10 +19568,10 @@
     </row>
     <row r="58" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>8</v>
@@ -19696,11 +19708,15 @@
         <f t="shared" si="34"/>
         <v>1887</v>
       </c>
-      <c r="AZ58" s="15" t="s">
+      <c r="AZ58" s="14">
+        <v>1888</v>
+      </c>
+      <c r="BA58" s="14">
+        <v>1889</v>
+      </c>
+      <c r="BB58" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BA58" s="14"/>
-      <c r="BB58" s="14"/>
       <c r="BC58" s="14"/>
       <c r="BD58" s="14"/>
       <c r="BE58" s="14"/>
@@ -19906,10 +19922,10 @@
     </row>
     <row r="59" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="27"/>
@@ -20187,13 +20203,13 @@
     </row>
     <row r="60" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="14"/>
@@ -20624,13 +20640,13 @@
     </row>
     <row r="61" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>5</v>
@@ -20895,10 +20911,10 @@
     </row>
     <row r="62" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="15"/>
@@ -21164,10 +21180,10 @@
     </row>
     <row r="63" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>8</v>
@@ -21433,10 +21449,10 @@
     </row>
     <row r="64" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>8</v>
@@ -21704,13 +21720,13 @@
     </row>
     <row r="65" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>5</v>
@@ -21975,13 +21991,13 @@
     </row>
     <row r="66" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>5</v>
@@ -22246,13 +22262,13 @@
     </row>
     <row r="67" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="C67" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>5</v>
@@ -22517,10 +22533,10 @@
     </row>
     <row r="68" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="15"/>
@@ -22786,10 +22802,10 @@
     </row>
     <row r="69" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="27"/>
@@ -23055,10 +23071,10 @@
     </row>
     <row r="70" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="15"/>
@@ -23342,10 +23358,10 @@
     </row>
     <row r="71" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>11</v>
@@ -23660,11 +23676,11 @@
   </sheetPr>
   <dimension ref="A1:IV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23770,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="33">
         <v>1840</v>
@@ -24261,7 +24277,7 @@
     <row r="3" spans="1:256" s="24" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
@@ -24523,13 +24539,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -24851,16 +24867,16 @@
     </row>
     <row r="5" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="39" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -25127,11 +25143,11 @@
         <v>18</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -25395,16 +25411,16 @@
     </row>
     <row r="7" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>150</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -25668,16 +25684,16 @@
     </row>
     <row r="8" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -25939,27 +25955,20 @@
     </row>
     <row r="9" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="28">
-        <f>F2</f>
-        <v>1841</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -25985,29 +25994,95 @@
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
       <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
+      <c r="AG9" s="28">
+        <f>AG2</f>
+        <v>1868</v>
+      </c>
+      <c r="AH9" s="28">
+        <f>AH2</f>
+        <v>1869</v>
+      </c>
+      <c r="AI9" s="28">
+        <f>AI2</f>
+        <v>1870</v>
+      </c>
+      <c r="AJ9" s="28">
+        <f>AJ2</f>
+        <v>1871</v>
+      </c>
+      <c r="AK9" s="28">
+        <f>AK2</f>
+        <v>1872</v>
+      </c>
+      <c r="AL9" s="28">
+        <f>AL2</f>
+        <v>1873</v>
+      </c>
+      <c r="AM9" s="28">
+        <f>AM2</f>
+        <v>1874</v>
+      </c>
+      <c r="AN9" s="28">
+        <f>AN2</f>
+        <v>1875</v>
+      </c>
+      <c r="AO9" s="28">
+        <f>AO2</f>
+        <v>1876</v>
+      </c>
+      <c r="AP9" s="28">
+        <f>AP2</f>
+        <v>1877</v>
+      </c>
+      <c r="AQ9" s="28">
+        <f>AQ2</f>
+        <v>1878</v>
+      </c>
+      <c r="AR9" s="28">
+        <f>AR2</f>
+        <v>1879</v>
+      </c>
+      <c r="AS9" s="28">
+        <f>AS2</f>
+        <v>1880</v>
+      </c>
+      <c r="AT9" s="28">
+        <f>AT2</f>
+        <v>1881</v>
+      </c>
+      <c r="AU9" s="28">
+        <f>AU2</f>
+        <v>1882</v>
+      </c>
+      <c r="AV9" s="28">
+        <f>AV2</f>
+        <v>1883</v>
+      </c>
+      <c r="AW9" s="28">
+        <f>AW2</f>
+        <v>1884</v>
+      </c>
+      <c r="AX9" s="28">
+        <f>AX2</f>
+        <v>1885</v>
+      </c>
+      <c r="AY9" s="28">
+        <f>AY2</f>
+        <v>1886</v>
+      </c>
+      <c r="AZ9" s="28">
+        <f>AZ2</f>
+        <v>1887</v>
+      </c>
+      <c r="BA9" s="28">
+        <v>1888</v>
+      </c>
+      <c r="BB9" s="26">
+        <v>1889</v>
+      </c>
+      <c r="BC9" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="BD9" s="26"/>
       <c r="BE9" s="26"/>
       <c r="BF9" s="26"/>
@@ -26212,100 +26287,102 @@
     </row>
     <row r="10" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BI10" s="14">
-        <f>BI2</f>
-        <v>1896</v>
-      </c>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BN10" s="13"/>
-      <c r="BO10" s="13"/>
-      <c r="BP10" s="13"/>
-      <c r="BQ10" s="13"/>
-      <c r="BR10" s="13"/>
-      <c r="BS10" s="13"/>
-      <c r="BT10" s="13"/>
-      <c r="BU10" s="13"/>
-      <c r="BV10" s="13"/>
-      <c r="BW10" s="13"/>
-      <c r="BX10" s="13"/>
-      <c r="BY10" s="13"/>
-      <c r="BZ10" s="13"/>
-      <c r="CA10" s="13"/>
-      <c r="CB10" s="13"/>
-      <c r="CC10" s="13"/>
-      <c r="CD10" s="13"/>
+      <c r="F10" s="28">
+        <f>F2</f>
+        <v>1841</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="26"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="26"/>
+      <c r="BR10" s="26"/>
+      <c r="BS10" s="26"/>
+      <c r="BT10" s="26"/>
+      <c r="BU10" s="26"/>
+      <c r="BV10" s="26"/>
+      <c r="BW10" s="26"/>
+      <c r="BX10" s="26"/>
+      <c r="BY10" s="26"/>
+      <c r="BZ10" s="26"/>
+      <c r="CA10" s="26"/>
+      <c r="CB10" s="26"/>
+      <c r="CC10" s="26"/>
+      <c r="CD10" s="26"/>
       <c r="CE10" s="23"/>
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
@@ -26483,100 +26560,100 @@
     </row>
     <row r="11" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="26"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="26"/>
-      <c r="BR11" s="26"/>
-      <c r="BS11" s="26"/>
-      <c r="BT11" s="26"/>
-      <c r="BU11" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BV11" s="28">
-        <f>BV2</f>
-        <v>1909</v>
-      </c>
-      <c r="BW11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="BX11" s="26"/>
-      <c r="BY11" s="26"/>
-      <c r="BZ11" s="26"/>
-      <c r="CA11" s="26"/>
-      <c r="CB11" s="26"/>
-      <c r="CC11" s="26"/>
-      <c r="CD11" s="26"/>
+      <c r="BI11" s="14">
+        <f>BI2</f>
+        <v>1896</v>
+      </c>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
       <c r="CE11" s="23"/>
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
@@ -26754,112 +26831,100 @@
     </row>
     <row r="12" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="13"/>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="26"/>
+      <c r="BN12" s="26"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="26"/>
+      <c r="BR12" s="26"/>
+      <c r="BS12" s="26"/>
+      <c r="BT12" s="26"/>
+      <c r="BU12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BH12" s="14">
-        <f>BH2</f>
-        <v>1895</v>
-      </c>
-      <c r="BI12" s="14">
-        <f>BI2</f>
-        <v>1896</v>
-      </c>
-      <c r="BJ12" s="14">
-        <f>BJ2</f>
-        <v>1897</v>
-      </c>
-      <c r="BK12" s="14">
-        <f>BK2</f>
-        <v>1898</v>
-      </c>
-      <c r="BL12" s="14">
-        <f>BL2</f>
-        <v>1899</v>
-      </c>
-      <c r="BM12" s="15" t="s">
+      <c r="BV12" s="28">
+        <f>BV2</f>
+        <v>1909</v>
+      </c>
+      <c r="BW12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="13"/>
-      <c r="BQ12" s="13"/>
-      <c r="BR12" s="13"/>
-      <c r="BS12" s="13"/>
-      <c r="BT12" s="13"/>
-      <c r="BU12" s="13"/>
-      <c r="BV12" s="13"/>
-      <c r="BW12" s="13"/>
-      <c r="BX12" s="13"/>
-      <c r="BY12" s="13"/>
-      <c r="BZ12" s="13"/>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="13"/>
-      <c r="CC12" s="13"/>
-      <c r="CD12" s="13"/>
+      <c r="BX12" s="26"/>
+      <c r="BY12" s="26"/>
+      <c r="BZ12" s="26"/>
+      <c r="CA12" s="26"/>
+      <c r="CB12" s="26"/>
+      <c r="CC12" s="26"/>
+      <c r="CD12" s="26"/>
       <c r="CE12" s="23"/>
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
@@ -27037,106 +27102,112 @@
     </row>
     <row r="13" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BJ13" s="28">
+      <c r="BH13" s="14">
+        <f>BH2</f>
+        <v>1895</v>
+      </c>
+      <c r="BI13" s="14">
+        <f>BI2</f>
+        <v>1896</v>
+      </c>
+      <c r="BJ13" s="14">
         <f>BJ2</f>
         <v>1897</v>
       </c>
-      <c r="BK13" s="28">
+      <c r="BK13" s="14">
         <f>BK2</f>
         <v>1898</v>
       </c>
-      <c r="BL13" s="28">
+      <c r="BL13" s="14">
         <f>BL2</f>
         <v>1899</v>
       </c>
-      <c r="BM13" s="27" t="s">
+      <c r="BM13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BN13" s="26"/>
-      <c r="BO13" s="26"/>
-      <c r="BP13" s="26"/>
-      <c r="BQ13" s="26"/>
-      <c r="BR13" s="26"/>
-      <c r="BS13" s="26"/>
-      <c r="BT13" s="26"/>
-      <c r="BU13" s="26"/>
-      <c r="BV13" s="26"/>
-      <c r="BW13" s="26"/>
-      <c r="BX13" s="26"/>
-      <c r="BY13" s="26"/>
-      <c r="BZ13" s="26"/>
-      <c r="CA13" s="26"/>
-      <c r="CB13" s="26"/>
-      <c r="CC13" s="26"/>
-      <c r="CD13" s="26"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="13"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="13"/>
       <c r="CE13" s="23"/>
       <c r="CF13" s="23"/>
       <c r="CG13" s="23"/>
@@ -27314,164 +27385,106 @@
     </row>
     <row r="14" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="14">
-        <f t="shared" ref="AK14:BG14" si="4">AK2</f>
-        <v>1872</v>
-      </c>
-      <c r="AL14" s="14">
-        <f t="shared" si="4"/>
-        <v>1873</v>
-      </c>
-      <c r="AM14" s="14">
-        <f t="shared" si="4"/>
-        <v>1874</v>
-      </c>
-      <c r="AN14" s="14">
-        <f t="shared" si="4"/>
-        <v>1875</v>
-      </c>
-      <c r="AO14" s="14">
-        <f t="shared" si="4"/>
-        <v>1876</v>
-      </c>
-      <c r="AP14" s="14">
-        <f t="shared" si="4"/>
-        <v>1877</v>
-      </c>
-      <c r="AQ14" s="14">
-        <f t="shared" si="4"/>
-        <v>1878</v>
-      </c>
-      <c r="AR14" s="14">
-        <f t="shared" si="4"/>
-        <v>1879</v>
-      </c>
-      <c r="AS14" s="14">
-        <f t="shared" si="4"/>
-        <v>1880</v>
-      </c>
-      <c r="AT14" s="14">
-        <f t="shared" si="4"/>
-        <v>1881</v>
-      </c>
-      <c r="AU14" s="14">
-        <f t="shared" si="4"/>
-        <v>1882</v>
-      </c>
-      <c r="AV14" s="14">
-        <f t="shared" si="4"/>
-        <v>1883</v>
-      </c>
-      <c r="AW14" s="14">
-        <f t="shared" si="4"/>
-        <v>1884</v>
-      </c>
-      <c r="AX14" s="14">
-        <f t="shared" si="4"/>
-        <v>1885</v>
-      </c>
-      <c r="AY14" s="14">
-        <f t="shared" si="4"/>
-        <v>1886</v>
-      </c>
-      <c r="AZ14" s="14">
-        <f t="shared" si="4"/>
-        <v>1887</v>
-      </c>
-      <c r="BA14" s="14">
-        <f t="shared" si="4"/>
-        <v>1888</v>
-      </c>
-      <c r="BB14" s="14">
-        <f t="shared" si="4"/>
-        <v>1889</v>
-      </c>
-      <c r="BC14" s="14">
-        <f t="shared" si="4"/>
-        <v>1890</v>
-      </c>
-      <c r="BD14" s="14">
-        <f t="shared" si="4"/>
-        <v>1891</v>
-      </c>
-      <c r="BE14" s="14">
-        <f t="shared" si="4"/>
-        <v>1892</v>
-      </c>
-      <c r="BF14" s="14">
-        <f t="shared" si="4"/>
-        <v>1893</v>
-      </c>
-      <c r="BG14" s="14">
-        <f t="shared" si="4"/>
-        <v>1894</v>
-      </c>
-      <c r="BH14" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="13"/>
-      <c r="BQ14" s="13"/>
-      <c r="BR14" s="13"/>
-      <c r="BS14" s="13"/>
-      <c r="BT14" s="13"/>
-      <c r="BU14" s="13"/>
-      <c r="BV14" s="13"/>
-      <c r="BW14" s="13"/>
-      <c r="BX14" s="13"/>
-      <c r="BY14" s="13"/>
-      <c r="BZ14" s="13"/>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="13"/>
-      <c r="CC14" s="13"/>
-      <c r="CD14" s="13"/>
+      <c r="BJ14" s="28">
+        <f>BJ2</f>
+        <v>1897</v>
+      </c>
+      <c r="BK14" s="28">
+        <f>BK2</f>
+        <v>1898</v>
+      </c>
+      <c r="BL14" s="28">
+        <f>BL2</f>
+        <v>1899</v>
+      </c>
+      <c r="BM14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN14" s="26"/>
+      <c r="BO14" s="26"/>
+      <c r="BP14" s="26"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="26"/>
+      <c r="BS14" s="26"/>
+      <c r="BT14" s="26"/>
+      <c r="BU14" s="26"/>
+      <c r="BV14" s="26"/>
+      <c r="BW14" s="26"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="26"/>
+      <c r="BZ14" s="26"/>
+      <c r="CA14" s="26"/>
+      <c r="CB14" s="26"/>
+      <c r="CC14" s="26"/>
+      <c r="CD14" s="26"/>
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
@@ -27649,157 +27662,164 @@
     </row>
     <row r="15" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="28">
-        <f t="shared" ref="AG15:AZ15" si="5">AG2</f>
-        <v>1868</v>
-      </c>
-      <c r="AH15" s="28">
-        <f t="shared" si="5"/>
-        <v>1869</v>
-      </c>
-      <c r="AI15" s="28">
-        <f t="shared" si="5"/>
-        <v>1870</v>
-      </c>
-      <c r="AJ15" s="28">
-        <f t="shared" si="5"/>
-        <v>1871</v>
-      </c>
-      <c r="AK15" s="28">
-        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="14">
+        <f t="shared" ref="AK15:BG15" si="4">AK2</f>
         <v>1872</v>
       </c>
-      <c r="AL15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AL15" s="14">
+        <f t="shared" si="4"/>
         <v>1873</v>
       </c>
-      <c r="AM15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AM15" s="14">
+        <f t="shared" si="4"/>
         <v>1874</v>
       </c>
-      <c r="AN15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AN15" s="14">
+        <f t="shared" si="4"/>
         <v>1875</v>
       </c>
-      <c r="AO15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AO15" s="14">
+        <f t="shared" si="4"/>
         <v>1876</v>
       </c>
-      <c r="AP15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AP15" s="14">
+        <f t="shared" si="4"/>
         <v>1877</v>
       </c>
-      <c r="AQ15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AQ15" s="14">
+        <f t="shared" si="4"/>
         <v>1878</v>
       </c>
-      <c r="AR15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AR15" s="14">
+        <f t="shared" si="4"/>
         <v>1879</v>
       </c>
-      <c r="AS15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AS15" s="14">
+        <f t="shared" si="4"/>
         <v>1880</v>
       </c>
-      <c r="AT15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AT15" s="14">
+        <f t="shared" si="4"/>
         <v>1881</v>
       </c>
-      <c r="AU15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AU15" s="14">
+        <f t="shared" si="4"/>
         <v>1882</v>
       </c>
-      <c r="AV15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AV15" s="14">
+        <f t="shared" si="4"/>
         <v>1883</v>
       </c>
-      <c r="AW15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AW15" s="14">
+        <f t="shared" si="4"/>
         <v>1884</v>
       </c>
-      <c r="AX15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AX15" s="14">
+        <f t="shared" si="4"/>
         <v>1885</v>
       </c>
-      <c r="AY15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AY15" s="14">
+        <f t="shared" si="4"/>
         <v>1886</v>
       </c>
-      <c r="AZ15" s="28">
-        <f t="shared" si="5"/>
+      <c r="AZ15" s="14">
+        <f t="shared" si="4"/>
         <v>1887</v>
       </c>
-      <c r="BA15" s="27" t="s">
+      <c r="BA15" s="14">
+        <f t="shared" si="4"/>
+        <v>1888</v>
+      </c>
+      <c r="BB15" s="14">
+        <f t="shared" si="4"/>
+        <v>1889</v>
+      </c>
+      <c r="BC15" s="14">
+        <f t="shared" si="4"/>
+        <v>1890</v>
+      </c>
+      <c r="BD15" s="14">
+        <f t="shared" si="4"/>
+        <v>1891</v>
+      </c>
+      <c r="BE15" s="14">
+        <f t="shared" si="4"/>
+        <v>1892</v>
+      </c>
+      <c r="BF15" s="14">
+        <f t="shared" si="4"/>
+        <v>1893</v>
+      </c>
+      <c r="BG15" s="14">
+        <f t="shared" si="4"/>
+        <v>1894</v>
+      </c>
+      <c r="BH15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="26"/>
-      <c r="BR15" s="26"/>
-      <c r="BS15" s="26"/>
-      <c r="BT15" s="26"/>
-      <c r="BU15" s="26"/>
-      <c r="BV15" s="26"/>
-      <c r="BW15" s="26"/>
-      <c r="BX15" s="26"/>
-      <c r="BY15" s="26"/>
-      <c r="BZ15" s="26"/>
-      <c r="CA15" s="26"/>
-      <c r="CB15" s="26"/>
-      <c r="CC15" s="26"/>
-      <c r="CD15" s="26"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
       <c r="CE15" s="23"/>
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
@@ -27977,14 +27997,14 @@
     </row>
     <row r="16" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -28248,14 +28268,14 @@
     </row>
     <row r="17" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -28320,11 +28340,15 @@
         <f>AZ2</f>
         <v>1887</v>
       </c>
-      <c r="BA17" s="27" t="s">
+      <c r="BA17" s="28">
+        <v>1888</v>
+      </c>
+      <c r="BB17" s="26">
+        <v>1889</v>
+      </c>
+      <c r="BC17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="26"/>
       <c r="BD17" s="26"/>
       <c r="BE17" s="26"/>
       <c r="BF17" s="26"/>
@@ -28529,16 +28553,16 @@
     </row>
     <row r="18" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -28555,187 +28579,187 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14">
-        <f t="shared" ref="S18:BL18" si="6">S2</f>
+        <f t="shared" ref="S18:BL18" si="5">S2</f>
         <v>1854</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1855</v>
       </c>
       <c r="U18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1856</v>
       </c>
       <c r="V18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1857</v>
       </c>
       <c r="W18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1858</v>
       </c>
       <c r="X18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1859</v>
       </c>
       <c r="Y18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1860</v>
       </c>
       <c r="Z18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1861</v>
       </c>
       <c r="AA18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1862</v>
       </c>
       <c r="AB18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1863</v>
       </c>
       <c r="AC18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1864</v>
       </c>
       <c r="AD18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1865</v>
       </c>
       <c r="AE18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1866</v>
       </c>
       <c r="AF18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1867</v>
       </c>
       <c r="AG18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1868</v>
       </c>
       <c r="AH18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1869</v>
       </c>
       <c r="AI18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1870</v>
       </c>
       <c r="AJ18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1871</v>
       </c>
       <c r="AK18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1872</v>
       </c>
       <c r="AL18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1873</v>
       </c>
       <c r="AM18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1874</v>
       </c>
       <c r="AN18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1875</v>
       </c>
       <c r="AO18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1876</v>
       </c>
       <c r="AP18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1877</v>
       </c>
       <c r="AQ18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1878</v>
       </c>
       <c r="AR18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1879</v>
       </c>
       <c r="AS18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1880</v>
       </c>
       <c r="AT18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1881</v>
       </c>
       <c r="AU18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1882</v>
       </c>
       <c r="AV18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1883</v>
       </c>
       <c r="AW18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1884</v>
       </c>
       <c r="AX18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1885</v>
       </c>
       <c r="AY18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1886</v>
       </c>
       <c r="AZ18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1887</v>
       </c>
       <c r="BA18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1888</v>
       </c>
       <c r="BB18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1889</v>
       </c>
       <c r="BC18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1890</v>
       </c>
       <c r="BD18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1891</v>
       </c>
       <c r="BE18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1892</v>
       </c>
       <c r="BF18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1893</v>
       </c>
       <c r="BG18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1894</v>
       </c>
       <c r="BH18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1895</v>
       </c>
       <c r="BI18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1896</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1897</v>
       </c>
       <c r="BK18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1898</v>
       </c>
       <c r="BL18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1899</v>
       </c>
       <c r="BM18" s="15" t="s">
@@ -28935,14 +28959,14 @@
     </row>
     <row r="19" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -28979,43 +29003,43 @@
       <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="28">
-        <f t="shared" ref="AM19:AV19" si="7">AM2</f>
+        <f t="shared" ref="AM19:AV19" si="6">AM2</f>
         <v>1874</v>
       </c>
       <c r="AN19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
       <c r="AO19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1876</v>
       </c>
       <c r="AP19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1877</v>
       </c>
       <c r="AQ19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1878</v>
       </c>
       <c r="AR19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1879</v>
       </c>
       <c r="AS19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1880</v>
       </c>
       <c r="AT19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1881</v>
       </c>
       <c r="AU19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1882</v>
       </c>
       <c r="AV19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1883</v>
       </c>
       <c r="AW19" s="27" t="s">
@@ -29231,14 +29255,14 @@
     </row>
     <row r="20" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -29502,14 +29526,14 @@
     </row>
     <row r="21" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -29546,59 +29570,59 @@
       <c r="AK21" s="26"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="28">
-        <f t="shared" ref="AM21:AZ21" si="8">AM2</f>
+        <f t="shared" ref="AM21:AZ21" si="7">AM2</f>
         <v>1874</v>
       </c>
       <c r="AN21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1875</v>
       </c>
       <c r="AO21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1876</v>
       </c>
       <c r="AP21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1877</v>
       </c>
       <c r="AQ21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1878</v>
       </c>
       <c r="AR21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1879</v>
       </c>
       <c r="AS21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1880</v>
       </c>
       <c r="AT21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1881</v>
       </c>
       <c r="AU21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1882</v>
       </c>
       <c r="AV21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1883</v>
       </c>
       <c r="AW21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1884</v>
       </c>
       <c r="AX21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1885</v>
       </c>
       <c r="AY21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1886</v>
       </c>
       <c r="AZ21" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1887</v>
       </c>
       <c r="BA21" s="27" t="s">
@@ -29810,16 +29834,16 @@
     </row>
     <row r="22" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -30092,313 +30116,313 @@
     </row>
     <row r="23" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="D23" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="28">
         <v>1826</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" ref="G23:AL23" si="9">G2</f>
+        <f t="shared" ref="G23:AL23" si="8">G2</f>
         <v>1842</v>
       </c>
       <c r="H23" s="28">
+        <f t="shared" si="8"/>
+        <v>1843</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1844</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="8"/>
+        <v>1845</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="8"/>
+        <v>1846</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" si="8"/>
+        <v>1847</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" si="8"/>
+        <v>1848</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" si="8"/>
+        <v>1849</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="8"/>
+        <v>1850</v>
+      </c>
+      <c r="P23" s="28">
+        <f t="shared" si="8"/>
+        <v>1851</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="8"/>
+        <v>1852</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" si="8"/>
+        <v>1853</v>
+      </c>
+      <c r="S23" s="28">
+        <f t="shared" si="8"/>
+        <v>1854</v>
+      </c>
+      <c r="T23" s="28">
+        <f t="shared" si="8"/>
+        <v>1855</v>
+      </c>
+      <c r="U23" s="28">
+        <f t="shared" si="8"/>
+        <v>1856</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" si="8"/>
+        <v>1857</v>
+      </c>
+      <c r="W23" s="28">
+        <f t="shared" si="8"/>
+        <v>1858</v>
+      </c>
+      <c r="X23" s="28">
+        <f t="shared" si="8"/>
+        <v>1859</v>
+      </c>
+      <c r="Y23" s="28">
+        <f t="shared" si="8"/>
+        <v>1860</v>
+      </c>
+      <c r="Z23" s="28">
+        <f t="shared" si="8"/>
+        <v>1861</v>
+      </c>
+      <c r="AA23" s="28">
+        <f t="shared" si="8"/>
+        <v>1862</v>
+      </c>
+      <c r="AB23" s="28">
+        <f t="shared" si="8"/>
+        <v>1863</v>
+      </c>
+      <c r="AC23" s="28">
+        <f t="shared" si="8"/>
+        <v>1864</v>
+      </c>
+      <c r="AD23" s="28">
+        <f t="shared" si="8"/>
+        <v>1865</v>
+      </c>
+      <c r="AE23" s="28">
+        <f t="shared" si="8"/>
+        <v>1866</v>
+      </c>
+      <c r="AF23" s="28">
+        <f t="shared" si="8"/>
+        <v>1867</v>
+      </c>
+      <c r="AG23" s="28">
+        <f t="shared" si="8"/>
+        <v>1868</v>
+      </c>
+      <c r="AH23" s="28">
+        <f t="shared" si="8"/>
+        <v>1869</v>
+      </c>
+      <c r="AI23" s="28">
+        <f t="shared" si="8"/>
+        <v>1870</v>
+      </c>
+      <c r="AJ23" s="28">
+        <f t="shared" si="8"/>
+        <v>1871</v>
+      </c>
+      <c r="AK23" s="28">
+        <f t="shared" si="8"/>
+        <v>1872</v>
+      </c>
+      <c r="AL23" s="28">
+        <f t="shared" si="8"/>
+        <v>1873</v>
+      </c>
+      <c r="AM23" s="28">
+        <f t="shared" ref="AM23:BR23" si="9">AM2</f>
+        <v>1874</v>
+      </c>
+      <c r="AN23" s="28">
         <f t="shared" si="9"/>
-        <v>1843</v>
-      </c>
-      <c r="I23" s="28">
+        <v>1875</v>
+      </c>
+      <c r="AO23" s="28">
         <f t="shared" si="9"/>
-        <v>1844</v>
-      </c>
-      <c r="J23" s="28">
+        <v>1876</v>
+      </c>
+      <c r="AP23" s="28">
         <f t="shared" si="9"/>
-        <v>1845</v>
-      </c>
-      <c r="K23" s="28">
+        <v>1877</v>
+      </c>
+      <c r="AQ23" s="28">
         <f t="shared" si="9"/>
-        <v>1846</v>
-      </c>
-      <c r="L23" s="28">
+        <v>1878</v>
+      </c>
+      <c r="AR23" s="28">
         <f t="shared" si="9"/>
-        <v>1847</v>
-      </c>
-      <c r="M23" s="28">
+        <v>1879</v>
+      </c>
+      <c r="AS23" s="28">
         <f t="shared" si="9"/>
-        <v>1848</v>
-      </c>
-      <c r="N23" s="28">
+        <v>1880</v>
+      </c>
+      <c r="AT23" s="28">
         <f t="shared" si="9"/>
-        <v>1849</v>
-      </c>
-      <c r="O23" s="28">
+        <v>1881</v>
+      </c>
+      <c r="AU23" s="28">
         <f t="shared" si="9"/>
-        <v>1850</v>
-      </c>
-      <c r="P23" s="28">
+        <v>1882</v>
+      </c>
+      <c r="AV23" s="28">
         <f t="shared" si="9"/>
-        <v>1851</v>
-      </c>
-      <c r="Q23" s="28">
+        <v>1883</v>
+      </c>
+      <c r="AW23" s="28">
         <f t="shared" si="9"/>
-        <v>1852</v>
-      </c>
-      <c r="R23" s="28">
+        <v>1884</v>
+      </c>
+      <c r="AX23" s="28">
         <f t="shared" si="9"/>
-        <v>1853</v>
-      </c>
-      <c r="S23" s="28">
+        <v>1885</v>
+      </c>
+      <c r="AY23" s="28">
         <f t="shared" si="9"/>
-        <v>1854</v>
-      </c>
-      <c r="T23" s="28">
+        <v>1886</v>
+      </c>
+      <c r="AZ23" s="28">
         <f t="shared" si="9"/>
-        <v>1855</v>
-      </c>
-      <c r="U23" s="28">
+        <v>1887</v>
+      </c>
+      <c r="BA23" s="28">
         <f t="shared" si="9"/>
-        <v>1856</v>
-      </c>
-      <c r="V23" s="28">
+        <v>1888</v>
+      </c>
+      <c r="BB23" s="28">
         <f t="shared" si="9"/>
-        <v>1857</v>
-      </c>
-      <c r="W23" s="28">
+        <v>1889</v>
+      </c>
+      <c r="BC23" s="28">
         <f t="shared" si="9"/>
-        <v>1858</v>
-      </c>
-      <c r="X23" s="28">
+        <v>1890</v>
+      </c>
+      <c r="BD23" s="28">
         <f t="shared" si="9"/>
-        <v>1859</v>
-      </c>
-      <c r="Y23" s="28">
+        <v>1891</v>
+      </c>
+      <c r="BE23" s="28">
         <f t="shared" si="9"/>
-        <v>1860</v>
-      </c>
-      <c r="Z23" s="28">
+        <v>1892</v>
+      </c>
+      <c r="BF23" s="28">
         <f t="shared" si="9"/>
-        <v>1861</v>
-      </c>
-      <c r="AA23" s="28">
+        <v>1893</v>
+      </c>
+      <c r="BG23" s="28">
         <f t="shared" si="9"/>
-        <v>1862</v>
-      </c>
-      <c r="AB23" s="28">
+        <v>1894</v>
+      </c>
+      <c r="BH23" s="28">
         <f t="shared" si="9"/>
-        <v>1863</v>
-      </c>
-      <c r="AC23" s="28">
+        <v>1895</v>
+      </c>
+      <c r="BI23" s="28">
         <f t="shared" si="9"/>
-        <v>1864</v>
-      </c>
-      <c r="AD23" s="28">
+        <v>1896</v>
+      </c>
+      <c r="BJ23" s="28">
         <f t="shared" si="9"/>
-        <v>1865</v>
-      </c>
-      <c r="AE23" s="28">
+        <v>1897</v>
+      </c>
+      <c r="BK23" s="28">
         <f t="shared" si="9"/>
-        <v>1866</v>
-      </c>
-      <c r="AF23" s="28">
+        <v>1898</v>
+      </c>
+      <c r="BL23" s="28">
         <f t="shared" si="9"/>
-        <v>1867</v>
-      </c>
-      <c r="AG23" s="28">
+        <v>1899</v>
+      </c>
+      <c r="BM23" s="28">
         <f t="shared" si="9"/>
-        <v>1868</v>
-      </c>
-      <c r="AH23" s="28">
+        <v>1900</v>
+      </c>
+      <c r="BN23" s="28">
         <f t="shared" si="9"/>
-        <v>1869</v>
-      </c>
-      <c r="AI23" s="28">
+        <v>1901</v>
+      </c>
+      <c r="BO23" s="28">
         <f t="shared" si="9"/>
-        <v>1870</v>
-      </c>
-      <c r="AJ23" s="28">
+        <v>1902</v>
+      </c>
+      <c r="BP23" s="28">
         <f t="shared" si="9"/>
-        <v>1871</v>
-      </c>
-      <c r="AK23" s="28">
+        <v>1903</v>
+      </c>
+      <c r="BQ23" s="28">
         <f t="shared" si="9"/>
-        <v>1872</v>
-      </c>
-      <c r="AL23" s="28">
+        <v>1904</v>
+      </c>
+      <c r="BR23" s="28">
         <f t="shared" si="9"/>
-        <v>1873</v>
-      </c>
-      <c r="AM23" s="28">
-        <f t="shared" ref="AM23:BR23" si="10">AM2</f>
-        <v>1874</v>
-      </c>
-      <c r="AN23" s="28">
+        <v>1905</v>
+      </c>
+      <c r="BS23" s="28">
+        <f t="shared" ref="BS23:CA23" si="10">BS2</f>
+        <v>1906</v>
+      </c>
+      <c r="BT23" s="28">
         <f t="shared" si="10"/>
-        <v>1875</v>
-      </c>
-      <c r="AO23" s="28">
+        <v>1907</v>
+      </c>
+      <c r="BU23" s="28">
         <f t="shared" si="10"/>
-        <v>1876</v>
-      </c>
-      <c r="AP23" s="28">
+        <v>1908</v>
+      </c>
+      <c r="BV23" s="28">
         <f t="shared" si="10"/>
-        <v>1877</v>
-      </c>
-      <c r="AQ23" s="28">
+        <v>1909</v>
+      </c>
+      <c r="BW23" s="28">
         <f t="shared" si="10"/>
-        <v>1878</v>
-      </c>
-      <c r="AR23" s="28">
+        <v>1910</v>
+      </c>
+      <c r="BX23" s="28">
         <f t="shared" si="10"/>
-        <v>1879</v>
-      </c>
-      <c r="AS23" s="28">
+        <v>1911</v>
+      </c>
+      <c r="BY23" s="28">
         <f t="shared" si="10"/>
-        <v>1880</v>
-      </c>
-      <c r="AT23" s="28">
+        <v>1912</v>
+      </c>
+      <c r="BZ23" s="28">
         <f t="shared" si="10"/>
-        <v>1881</v>
-      </c>
-      <c r="AU23" s="28">
+        <v>1913</v>
+      </c>
+      <c r="CA23" s="28">
         <f t="shared" si="10"/>
-        <v>1882</v>
-      </c>
-      <c r="AV23" s="28">
-        <f t="shared" si="10"/>
-        <v>1883</v>
-      </c>
-      <c r="AW23" s="28">
-        <f t="shared" si="10"/>
-        <v>1884</v>
-      </c>
-      <c r="AX23" s="28">
-        <f t="shared" si="10"/>
-        <v>1885</v>
-      </c>
-      <c r="AY23" s="28">
-        <f t="shared" si="10"/>
-        <v>1886</v>
-      </c>
-      <c r="AZ23" s="28">
-        <f t="shared" si="10"/>
-        <v>1887</v>
-      </c>
-      <c r="BA23" s="28">
-        <f t="shared" si="10"/>
-        <v>1888</v>
-      </c>
-      <c r="BB23" s="28">
-        <f t="shared" si="10"/>
-        <v>1889</v>
-      </c>
-      <c r="BC23" s="28">
-        <f t="shared" si="10"/>
-        <v>1890</v>
-      </c>
-      <c r="BD23" s="28">
-        <f t="shared" si="10"/>
-        <v>1891</v>
-      </c>
-      <c r="BE23" s="28">
-        <f t="shared" si="10"/>
-        <v>1892</v>
-      </c>
-      <c r="BF23" s="28">
-        <f t="shared" si="10"/>
-        <v>1893</v>
-      </c>
-      <c r="BG23" s="28">
-        <f t="shared" si="10"/>
-        <v>1894</v>
-      </c>
-      <c r="BH23" s="28">
-        <f t="shared" si="10"/>
-        <v>1895</v>
-      </c>
-      <c r="BI23" s="28">
-        <f t="shared" si="10"/>
-        <v>1896</v>
-      </c>
-      <c r="BJ23" s="28">
-        <f t="shared" si="10"/>
-        <v>1897</v>
-      </c>
-      <c r="BK23" s="28">
-        <f t="shared" si="10"/>
-        <v>1898</v>
-      </c>
-      <c r="BL23" s="28">
-        <f t="shared" si="10"/>
-        <v>1899</v>
-      </c>
-      <c r="BM23" s="28">
-        <f t="shared" si="10"/>
-        <v>1900</v>
-      </c>
-      <c r="BN23" s="28">
-        <f t="shared" si="10"/>
-        <v>1901</v>
-      </c>
-      <c r="BO23" s="28">
-        <f t="shared" si="10"/>
-        <v>1902</v>
-      </c>
-      <c r="BP23" s="28">
-        <f t="shared" si="10"/>
-        <v>1903</v>
-      </c>
-      <c r="BQ23" s="28">
-        <f t="shared" si="10"/>
-        <v>1904</v>
-      </c>
-      <c r="BR23" s="28">
-        <f t="shared" si="10"/>
-        <v>1905</v>
-      </c>
-      <c r="BS23" s="28">
-        <f t="shared" ref="BS23:CA23" si="11">BS2</f>
-        <v>1906</v>
-      </c>
-      <c r="BT23" s="28">
-        <f t="shared" si="11"/>
-        <v>1907</v>
-      </c>
-      <c r="BU23" s="28">
-        <f t="shared" si="11"/>
-        <v>1908</v>
-      </c>
-      <c r="BV23" s="28">
-        <f t="shared" si="11"/>
-        <v>1909</v>
-      </c>
-      <c r="BW23" s="28">
-        <f t="shared" si="11"/>
-        <v>1910</v>
-      </c>
-      <c r="BX23" s="28">
-        <f t="shared" si="11"/>
-        <v>1911</v>
-      </c>
-      <c r="BY23" s="28">
-        <f t="shared" si="11"/>
-        <v>1912</v>
-      </c>
-      <c r="BZ23" s="28">
-        <f t="shared" si="11"/>
-        <v>1913</v>
-      </c>
-      <c r="CA23" s="28">
-        <f t="shared" si="11"/>
         <v>1914</v>
       </c>
       <c r="CB23" s="27" t="s">
@@ -30583,16 +30607,16 @@
     </row>
     <row r="24" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -30854,16 +30878,16 @@
     </row>
     <row r="25" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -31125,14 +31149,14 @@
     </row>
     <row r="26" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -31396,14 +31420,14 @@
     </row>
     <row r="27" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -31667,14 +31691,14 @@
     </row>
     <row r="28" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -31938,14 +31962,14 @@
     </row>
     <row r="29" spans="1:256" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -35748,8 +35772,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="A25" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>

--- a/Справочник по кирпичам.xlsx
+++ b/Справочник по кирпичам.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolk/Projects/kazan-bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FD295-5FA1-3B48-953B-2040D6811ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2F217-15D2-DC45-8F7D-5B8ADC12508F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Казань - Краткий справочник по " sheetId="1" r:id="rId1"/>
@@ -2348,11 +2348,11 @@
   </sheetPr>
   <dimension ref="A1:IV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BA40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB11" sqref="BB11"/>
+      <selection pane="bottomRight" activeCell="BW59" sqref="BW59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20012,13 +20012,21 @@
         <f>BR2</f>
         <v>1906</v>
       </c>
-      <c r="BS59" s="27" t="s">
+      <c r="BS59" s="28">
+        <v>1907</v>
+      </c>
+      <c r="BT59" s="28">
+        <v>1908</v>
+      </c>
+      <c r="BU59" s="28">
+        <v>1909</v>
+      </c>
+      <c r="BV59" s="28">
+        <v>1910</v>
+      </c>
+      <c r="BW59" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BT59" s="28"/>
-      <c r="BU59" s="28"/>
-      <c r="BV59" s="28"/>
-      <c r="BW59" s="28"/>
       <c r="BX59" s="28"/>
       <c r="BY59" s="27"/>
       <c r="BZ59" s="27"/>
@@ -23676,8 +23684,8 @@
   </sheetPr>
   <dimension ref="A1:IV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
@@ -25995,83 +26003,83 @@
       <c r="AE9" s="26"/>
       <c r="AF9" s="26"/>
       <c r="AG9" s="28">
-        <f>AG2</f>
+        <f t="shared" ref="AG9:AZ9" si="4">AG2</f>
         <v>1868</v>
       </c>
       <c r="AH9" s="28">
-        <f>AH2</f>
+        <f t="shared" si="4"/>
         <v>1869</v>
       </c>
       <c r="AI9" s="28">
-        <f>AI2</f>
+        <f t="shared" si="4"/>
         <v>1870</v>
       </c>
       <c r="AJ9" s="28">
-        <f>AJ2</f>
+        <f t="shared" si="4"/>
         <v>1871</v>
       </c>
       <c r="AK9" s="28">
-        <f>AK2</f>
+        <f t="shared" si="4"/>
         <v>1872</v>
       </c>
       <c r="AL9" s="28">
-        <f>AL2</f>
+        <f t="shared" si="4"/>
         <v>1873</v>
       </c>
       <c r="AM9" s="28">
-        <f>AM2</f>
+        <f t="shared" si="4"/>
         <v>1874</v>
       </c>
       <c r="AN9" s="28">
-        <f>AN2</f>
+        <f t="shared" si="4"/>
         <v>1875</v>
       </c>
       <c r="AO9" s="28">
-        <f>AO2</f>
+        <f t="shared" si="4"/>
         <v>1876</v>
       </c>
       <c r="AP9" s="28">
-        <f>AP2</f>
+        <f t="shared" si="4"/>
         <v>1877</v>
       </c>
       <c r="AQ9" s="28">
-        <f>AQ2</f>
+        <f t="shared" si="4"/>
         <v>1878</v>
       </c>
       <c r="AR9" s="28">
-        <f>AR2</f>
+        <f t="shared" si="4"/>
         <v>1879</v>
       </c>
       <c r="AS9" s="28">
-        <f>AS2</f>
+        <f t="shared" si="4"/>
         <v>1880</v>
       </c>
       <c r="AT9" s="28">
-        <f>AT2</f>
+        <f t="shared" si="4"/>
         <v>1881</v>
       </c>
       <c r="AU9" s="28">
-        <f>AU2</f>
+        <f t="shared" si="4"/>
         <v>1882</v>
       </c>
       <c r="AV9" s="28">
-        <f>AV2</f>
+        <f t="shared" si="4"/>
         <v>1883</v>
       </c>
       <c r="AW9" s="28">
-        <f>AW2</f>
+        <f t="shared" si="4"/>
         <v>1884</v>
       </c>
       <c r="AX9" s="28">
-        <f>AX2</f>
+        <f t="shared" si="4"/>
         <v>1885</v>
       </c>
       <c r="AY9" s="28">
-        <f>AY2</f>
+        <f t="shared" si="4"/>
         <v>1886</v>
       </c>
       <c r="AZ9" s="28">
-        <f>AZ2</f>
+        <f t="shared" si="4"/>
         <v>1887</v>
       </c>
       <c r="BA9" s="28">
@@ -27704,95 +27712,95 @@
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14">
-        <f t="shared" ref="AK15:BG15" si="4">AK2</f>
+        <f t="shared" ref="AK15:BG15" si="5">AK2</f>
         <v>1872</v>
       </c>
       <c r="AL15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1873</v>
       </c>
       <c r="AM15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1874</v>
       </c>
       <c r="AN15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1875</v>
       </c>
       <c r="AO15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1876</v>
       </c>
       <c r="AP15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1877</v>
       </c>
       <c r="AQ15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1878</v>
       </c>
       <c r="AR15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1879</v>
       </c>
       <c r="AS15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1880</v>
       </c>
       <c r="AT15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1881</v>
       </c>
       <c r="AU15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1882</v>
       </c>
       <c r="AV15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1883</v>
       </c>
       <c r="AW15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1884</v>
       </c>
       <c r="AX15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1885</v>
       </c>
       <c r="AY15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1886</v>
       </c>
       <c r="AZ15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1887</v>
       </c>
       <c r="BA15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1888</v>
       </c>
       <c r="BB15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1889</v>
       </c>
       <c r="BC15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1890</v>
       </c>
       <c r="BD15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1891</v>
       </c>
       <c r="BE15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1892</v>
       </c>
       <c r="BF15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1893</v>
       </c>
       <c r="BG15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1894</v>
       </c>
       <c r="BH15" s="15" t="s">
@@ -28579,187 +28587,187 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="14">
-        <f t="shared" ref="S18:BL18" si="5">S2</f>
+        <f t="shared" ref="S18:BL18" si="6">S2</f>
         <v>1854</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1855</v>
       </c>
       <c r="U18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1856</v>
       </c>
       <c r="V18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1857</v>
       </c>
       <c r="W18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1858</v>
       </c>
       <c r="X18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1859</v>
       </c>
       <c r="Y18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1860</v>
       </c>
       <c r="Z18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1861</v>
       </c>
       <c r="AA18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1862</v>
       </c>
       <c r="AB18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1863</v>
       </c>
       <c r="AC18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1864</v>
       </c>
       <c r="AD18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1865</v>
       </c>
       <c r="AE18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1866</v>
       </c>
       <c r="AF18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1867</v>
       </c>
       <c r="AG18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1868</v>
       </c>
       <c r="AH18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1869</v>
       </c>
       <c r="AI18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1870</v>
       </c>
       <c r="AJ18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1871</v>
       </c>
       <c r="AK18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1872</v>
       </c>
       <c r="AL18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1873</v>
       </c>
       <c r="AM18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1874</v>
       </c>
       <c r="AN18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
       <c r="AO18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1876</v>
       </c>
       <c r="AP18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1877</v>
       </c>
       <c r="AQ18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1878</v>
       </c>
       <c r="AR18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1879</v>
       </c>
       <c r="AS18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1880</v>
       </c>
       <c r="AT18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1881</v>
       </c>
       <c r="AU18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1882</v>
       </c>
       <c r="AV18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1883</v>
       </c>
       <c r="AW18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1884</v>
       </c>
       <c r="AX18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1885</v>
       </c>
       <c r="AY18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1886</v>
       </c>
       <c r="AZ18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1887</v>
       </c>
       <c r="BA18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1888</v>
       </c>
       <c r="BB18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1889</v>
       </c>
       <c r="BC18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1890</v>
       </c>
       <c r="BD18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1891</v>
       </c>
       <c r="BE18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1892</v>
       </c>
       <c r="BF18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1893</v>
       </c>
       <c r="BG18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1894</v>
       </c>
       <c r="BH18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1895</v>
       </c>
       <c r="BI18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1896</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1897</v>
       </c>
       <c r="BK18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1898</v>
       </c>
       <c r="BL18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1899</v>
       </c>
       <c r="BM18" s="15" t="s">
@@ -29003,43 +29011,43 @@
       <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="28">
-        <f t="shared" ref="AM19:AV19" si="6">AM2</f>
+        <f t="shared" ref="AM19:AV19" si="7">AM2</f>
         <v>1874</v>
       </c>
       <c r="AN19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1875</v>
       </c>
       <c r="AO19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1876</v>
       </c>
       <c r="AP19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1877</v>
       </c>
       <c r="AQ19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1878</v>
       </c>
       <c r="AR19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1879</v>
       </c>
       <c r="AS19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1880</v>
       </c>
       <c r="AT19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1881</v>
       </c>
       <c r="AU19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1882</v>
       </c>
       <c r="AV19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1883</v>
       </c>
       <c r="AW19" s="27" t="s">
@@ -29570,59 +29578,59 @@
       <c r="AK21" s="26"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="28">
-        <f t="shared" ref="AM21:AZ21" si="7">AM2</f>
+        <f t="shared" ref="AM21:AZ21" si="8">AM2</f>
         <v>1874</v>
       </c>
       <c r="AN21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1875</v>
       </c>
       <c r="AO21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1876</v>
       </c>
       <c r="AP21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1877</v>
       </c>
       <c r="AQ21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1878</v>
       </c>
       <c r="AR21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1879</v>
       </c>
       <c r="AS21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1880</v>
       </c>
       <c r="AT21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1881</v>
       </c>
       <c r="AU21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1882</v>
       </c>
       <c r="AV21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1883</v>
       </c>
       <c r="AW21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1884</v>
       </c>
       <c r="AX21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1885</v>
       </c>
       <c r="AY21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1886</v>
       </c>
       <c r="AZ21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1887</v>
       </c>
       <c r="BA21" s="27" t="s">
@@ -30134,295 +30142,295 @@
         <v>188</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" ref="G23:AL23" si="8">G2</f>
+        <f t="shared" ref="G23:AL23" si="9">G2</f>
         <v>1842</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1843</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1844</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1845</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1846</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1847</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1848</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1849</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1850</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1851</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1852</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1853</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1854</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1855</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1856</v>
       </c>
       <c r="V23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1857</v>
       </c>
       <c r="W23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1858</v>
       </c>
       <c r="X23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1859</v>
       </c>
       <c r="Y23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1860</v>
       </c>
       <c r="Z23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1861</v>
       </c>
       <c r="AA23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1862</v>
       </c>
       <c r="AB23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1863</v>
       </c>
       <c r="AC23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1864</v>
       </c>
       <c r="AD23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1865</v>
       </c>
       <c r="AE23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1866</v>
       </c>
       <c r="AF23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1867</v>
       </c>
       <c r="AG23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1868</v>
       </c>
       <c r="AH23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1869</v>
       </c>
       <c r="AI23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1870</v>
       </c>
       <c r="AJ23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1871</v>
       </c>
       <c r="AK23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1872</v>
       </c>
       <c r="AL23" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1873</v>
       </c>
       <c r="AM23" s="28">
-        <f t="shared" ref="AM23:BR23" si="9">AM2</f>
+        <f t="shared" ref="AM23:BR23" si="10">AM2</f>
         <v>1874</v>
       </c>
       <c r="AN23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1875</v>
       </c>
       <c r="AO23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1876</v>
       </c>
       <c r="AP23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1877</v>
       </c>
       <c r="AQ23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1878</v>
       </c>
       <c r="AR23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1879</v>
       </c>
       <c r="AS23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1880</v>
       </c>
       <c r="AT23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1881</v>
       </c>
       <c r="AU23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1882</v>
       </c>
       <c r="AV23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1883</v>
       </c>
       <c r="AW23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1884</v>
       </c>
       <c r="AX23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1885</v>
       </c>
       <c r="AY23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1886</v>
       </c>
       <c r="AZ23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1887</v>
       </c>
       <c r="BA23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1888</v>
       </c>
       <c r="BB23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1889</v>
       </c>
       <c r="BC23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1890</v>
       </c>
       <c r="BD23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1891</v>
       </c>
       <c r="BE23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1892</v>
       </c>
       <c r="BF23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1893</v>
       </c>
       <c r="BG23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1894</v>
       </c>
       <c r="BH23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1895</v>
       </c>
       <c r="BI23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1896</v>
       </c>
       <c r="BJ23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1897</v>
       </c>
       <c r="BK23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1898</v>
       </c>
       <c r="BL23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1899</v>
       </c>
       <c r="BM23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1900</v>
       </c>
       <c r="BN23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1901</v>
       </c>
       <c r="BO23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1902</v>
       </c>
       <c r="BP23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1903</v>
       </c>
       <c r="BQ23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1904</v>
       </c>
       <c r="BR23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1905</v>
       </c>
       <c r="BS23" s="28">
-        <f t="shared" ref="BS23:CA23" si="10">BS2</f>
+        <f t="shared" ref="BS23:CA23" si="11">BS2</f>
         <v>1906</v>
       </c>
       <c r="BT23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1907</v>
       </c>
       <c r="BU23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1908</v>
       </c>
       <c r="BV23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1909</v>
       </c>
       <c r="BW23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1910</v>
       </c>
       <c r="BX23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1911</v>
       </c>
       <c r="BY23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1912</v>
       </c>
       <c r="BZ23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1913</v>
       </c>
       <c r="CA23" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1914</v>
       </c>
       <c r="CB23" s="27" t="s">
